--- a/analysis/xlsx/2021/2021_나이대별_판매량.xlsx
+++ b/analysis/xlsx/2021/2021_나이대별_판매량.xlsx
@@ -485,9 +485,9 @@
       <c r="E2" t="inlineStr">
         <is>
           <t>2021년도 10대 - 공급가액: 0.0, 예측 공급가액: 0.0
-2021년도 20대 - 공급가액: 1093598000.0, 예측 공급가액: 1699988000.0
-2021년도 30대 - 공급가액: 1260956600.0, 예측 공급가액: 1925123200.0
-2021년도 40대 - 공급가액: 684211000.0, 예측 공급가액: 1049043000.0</t>
+2021년도 20대 - 공급가액: 1106721000.0, 예측 공급가액: 1695158000.0
+2021년도 30대 - 공급가액: 1186989600.0, 예측 공급가액: 1838371200.0
+2021년도 40대 - 공급가액: 745055000.0, 예측 공급가액: 1140625000.0</t>
         </is>
       </c>
     </row>
@@ -501,10 +501,10 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1093598000</v>
+        <v>1106721000</v>
       </c>
       <c r="D3" t="n">
-        <v>1699988000</v>
+        <v>1695158000</v>
       </c>
       <c r="E3" t="inlineStr"/>
     </row>
@@ -518,10 +518,10 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1260956600</v>
+        <v>1186989600</v>
       </c>
       <c r="D4" t="n">
-        <v>1925123200</v>
+        <v>1838371200</v>
       </c>
       <c r="E4" t="inlineStr"/>
     </row>
@@ -535,10 +535,10 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>684211000</v>
+        <v>745055000</v>
       </c>
       <c r="D5" t="n">
-        <v>1049043000</v>
+        <v>1140625000</v>
       </c>
       <c r="E5" t="inlineStr"/>
     </row>
